--- a/reports/xlsx/ivinskoe.xlsx
+++ b/reports/xlsx/ivinskoe.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5208"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Месторождение</t>
   </si>
@@ -48,6 +43,12 @@
     <t>пористость</t>
   </si>
   <si>
+    <t>КИН</t>
+  </si>
+  <si>
+    <t>Квыт</t>
+  </si>
+  <si>
     <t>Ивинское месторождение</t>
   </si>
   <si>
@@ -66,50 +67,56 @@
     <t>бобриковский</t>
   </si>
   <si>
+    <t>тульский</t>
+  </si>
+  <si>
+    <t>алексинский</t>
+  </si>
+  <si>
+    <t>башкирский</t>
+  </si>
+  <si>
+    <t>верейский</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
     <t>да</t>
   </si>
   <si>
+    <t>81,0</t>
+  </si>
+  <si>
+    <t>65,0</t>
+  </si>
+  <si>
+    <t>79,0</t>
+  </si>
+  <si>
+    <t>66,0</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
     <t>22,0</t>
   </si>
   <si>
-    <t>тульский</t>
-  </si>
-  <si>
-    <t>алексинский</t>
-  </si>
-  <si>
-    <t>65,0</t>
-  </si>
-  <si>
-    <t>башкирский</t>
-  </si>
-  <si>
-    <t>79,0</t>
-  </si>
-  <si>
-    <t>верейский</t>
+    <t>23,0</t>
+  </si>
+  <si>
+    <t>14,5</t>
   </si>
   <si>
     <t>15,0</t>
-  </si>
-  <si>
-    <t>81,0 (неправильное значение)</t>
-  </si>
-  <si>
-    <t>(не вывело значение, а оно есть)</t>
-  </si>
-  <si>
-    <t>66,0 (неправильное значение)</t>
-  </si>
-  <si>
-    <t>14,5 (неправильное значение)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,27 +127,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -170,34 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -485,187 +466,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>25</v>
       </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
+      <c r="J7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>